--- a/mySQL_Create/units.xlsx
+++ b/mySQL_Create/units.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>Column name</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>INT</t>
+  </si>
+  <si>
+    <t>UNIQUE</t>
   </si>
 </sst>
 </file>
@@ -289,7 +292,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -594,16 +597,16 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="25.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,7 +629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -645,7 +648,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -662,7 +665,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
@@ -675,11 +678,13 @@
       <c r="D4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="F4" s="10"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
@@ -696,7 +701,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
@@ -711,7 +716,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
@@ -724,11 +729,13 @@
       <c r="D7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="F7" s="10"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>20</v>
       </c>
@@ -745,7 +752,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>22</v>
       </c>
@@ -760,7 +767,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>23</v>
       </c>

--- a/mySQL_Create/units.xlsx
+++ b/mySQL_Create/units.xlsx
@@ -597,13 +597,16 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.88671875" customWidth="1"/>
     <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="79.8" x14ac:dyDescent="0.3">
@@ -675,7 +678,7 @@
       <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="17" t="s">
@@ -726,7 +729,7 @@
       <c r="C7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="17" t="s">
@@ -777,7 +780,7 @@
       <c r="C10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="15"/>
